--- a/Outputs/appendix/t-ses.xlsx
+++ b/Outputs/appendix/t-ses.xlsx
@@ -27,7 +27,7 @@
     <t>Bihar</t>
   </si>
   <si>
-    <t>Chattisgarh</t>
+    <t>Chhattisgarh</t>
   </si>
   <si>
     <t>Gujarat</t>
@@ -51,10 +51,10 @@
     <t>Madhya Pradesh</t>
   </si>
   <si>
-    <t>Maharastra</t>
-  </si>
-  <si>
-    <t>Orissa</t>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Odisha</t>
   </si>
   <si>
     <t>Punjab</t>
@@ -63,7 +63,7 @@
     <t>Rajasthan</t>
   </si>
   <si>
-    <t>Tamilnadu</t>
+    <t>Tamil Nadu</t>
   </si>
   <si>
     <t>Uttar Pradesh</t>
